--- a/Data/Input/Active_Loans_Input.xlsx
+++ b/Data/Input/Active_Loans_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinesh\Desktop\UiPath\Projects\BotsDNA\Robot22_Active_Loans_Bot\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1636DD-4ADD-498C-B0EC-CB5CFF479E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEAD6B1-A5FA-47E5-911C-414109F42787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>AccountNumber</x:t>
   </x:si>
@@ -111,6 +111,129 @@
   </x:si>
   <x:si>
     <x:t>INACTIVE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276895644471</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BANDHANBANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S.N.PADU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-NOV-2008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266475234461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APGB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIJAYAWADA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-SEP-2009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>237983264762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TELANGANA GRAMIN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KARIMNAGAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-OCT-2009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231467125653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HDFC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PERNAMETTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-AUG-2010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226945727686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHARASTARA BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHARASTARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-JAN-2008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216776658542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SYDICATE BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NALAGODA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-July-2002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3700000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213565765285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IDBI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MADDIPADU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-APL-2006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17895</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -454,21 +577,19 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H4"/>
+  <x:dimension ref="A1:H11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F11" sqref="F11"/>
+      <x:selection activeCell="E12" sqref="E12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="25.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="23.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.855469" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.855469" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.710938" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.710938" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="22.425781" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.710938" style="0" customWidth="1"/>
+    <x:col min="2" max="3" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.285156" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="10.710938" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -575,7 +696,192 @@
         <x:v>29</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:sortState ref="A1:A11">
+    <x:sortCondition descending="1" ref="A6:A11"/>
+  </x:sortState>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
